--- a/results/I3_N5_M2_T30_C200_DepCentral_s1_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepCentral_s1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>392.2485864922136</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7650001049041748</v>
+        <v>0.1629998683929443</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.58858649131692</v>
+        <v>23.95968639016486</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.9100000008967</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>159.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>26.23964284834945</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>21.60181147454996</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21.60181147454989</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.75054662682651</v>
+        <v>22.48909622152296</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.720264823079315</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>126.9700000000036</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>127.65</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>136.8550000000036</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -1076,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>127.2550000000039</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>123.4800000000039</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>130.5950000000203</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>126.4750000000142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1120,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>127.9650000000167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -1131,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>136.1400000000139</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1142,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>135.280000000018</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>215.6650000000481</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18">
@@ -1164,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>215.0150000000449</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>202.8750000000464</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
@@ -1186,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>219.1100000000413</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>218.0250000000487</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22">
@@ -1208,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>202.860000000023</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23">
@@ -1219,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>203.3400000000289</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>217.0550000000258</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>207.5100000000278</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26">
@@ -1252,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>199.0450000000265</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -1263,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>83.55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -1285,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>81.31499999999546</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30">
@@ -1296,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>84.61499999999454</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31">
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>86.01499999999378</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1318,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>215.6650000000584</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -1329,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>215.0150000000571</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>202.8750000000585</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>219.1100000000534</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
@@ -1362,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>218.0250000000626</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>202.8600000000359</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38">
@@ -1384,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.3400000000436</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39">
@@ -1395,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>217.0550000000459</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40">
@@ -1406,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>207.5100000000424</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41">
@@ -1417,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>199.0450000000411</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>15.66500000005703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1475,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.01500000005569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1486,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.875000000057184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1497,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.11000000005205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>18.02500000006125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>2.8600000000352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3.34000000004292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.05500000004525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1552,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.510000000041742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>18.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1841,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>14.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1852,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>16.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1863,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1874,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>17.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1888,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1913,105 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
